--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F400A5-5C82-407B-A499-ACF77CE1BCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA4054-11B4-472A-B842-D75846405667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,6 +638,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -655,18 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -949,7 +949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1004,9 +1004,9 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="38"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1018,9 +1018,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1035,9 +1035,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1048,9 +1048,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1065,9 +1065,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="32">
+        <v>2</v>
+      </c>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1078,9 +1080,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1095,9 +1097,9 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1108,9 +1110,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1121,9 +1123,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1138,9 +1140,9 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1151,9 +1153,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1168,9 +1170,9 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1181,9 +1183,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1194,9 +1196,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1211,9 +1213,9 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1224,9 +1226,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1237,9 +1239,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1254,9 +1256,9 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1271,9 +1273,9 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="36"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1288,9 +1290,9 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1301,9 +1303,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1318,9 +1320,9 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1335,9 +1337,9 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="37"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1348,9 +1350,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1365,9 +1367,9 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="37"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1378,9 +1380,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1395,9 +1397,9 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1412,9 +1414,9 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1425,9 +1427,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1442,9 +1444,9 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="37"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1459,9 +1461,9 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="37"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1472,9 +1474,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="37"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1485,9 +1487,9 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="37"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1498,9 +1500,9 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="37"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1511,9 +1513,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1526,9 +1528,9 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="37"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1539,9 +1541,9 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="37"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1554,9 +1556,9 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="37"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14">
@@ -1567,9 +1569,9 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="37"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1584,9 +1586,9 @@
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1597,9 +1599,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1610,9 +1612,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1627,9 +1629,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1640,9 +1642,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1653,9 +1655,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1666,9 +1668,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1679,9 +1681,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1692,9 +1694,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1705,9 +1707,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1722,9 +1724,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1735,9 +1737,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="37"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1748,9 +1750,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="37"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1765,7 +1767,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1777,7 +1779,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1789,7 +1791,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="30"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1806,6 +1808,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1817,21 +1834,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FA4054-11B4-472A-B842-D75846405667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB80DA-ED09-4F9F-8B77-A170B655CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,18 +638,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -667,6 +655,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -948,8 +948,8 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F7"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1004,9 +1004,9 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1018,9 +1018,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1035,9 +1035,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1048,9 +1048,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1065,11 +1065,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32">
+      <c r="E6" s="32"/>
+      <c r="F6" s="35">
         <v>2</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1080,9 +1080,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1097,9 +1097,9 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1110,9 +1110,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1123,9 +1123,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1140,9 +1140,9 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1153,9 +1153,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1170,9 +1170,9 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1183,9 +1183,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1196,9 +1196,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1213,9 +1213,9 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1226,9 +1226,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1239,9 +1239,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1256,9 +1256,9 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1273,9 +1273,9 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1290,9 +1290,9 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1303,9 +1303,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1320,9 +1320,9 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="30"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1337,9 +1337,9 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1350,9 +1350,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1367,9 +1367,9 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1380,9 +1380,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1397,9 +1397,9 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1414,9 +1414,9 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="31"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1427,9 +1427,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="30"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1444,9 +1444,9 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="30"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1461,9 +1461,9 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="30"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1474,9 +1474,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1487,9 +1487,9 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="30"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1500,9 +1500,9 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="30"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1513,9 +1513,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="31"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1528,9 +1528,9 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1541,9 +1541,9 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1556,9 +1556,9 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14">
@@ -1569,9 +1569,9 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1586,9 +1586,9 @@
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1599,9 +1599,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1612,9 +1612,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1629,9 +1629,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1642,9 +1642,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1655,9 +1655,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1668,9 +1668,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1681,9 +1681,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1694,9 +1694,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1707,9 +1707,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1724,9 +1724,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="31"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1737,9 +1737,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1750,9 +1750,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1767,7 +1767,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="34"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1779,7 +1779,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="34"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1791,7 +1791,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="34"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1808,21 +1808,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1834,6 +1819,21 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB80DA-ED09-4F9F-8B77-A170B655CE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E2E66-D8FD-4443-AFA2-146FADC65882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,6 +638,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -655,18 +667,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -949,7 +949,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1004,9 +1004,9 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="38"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1018,9 +1018,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1035,9 +1035,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1048,9 +1048,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1065,11 +1065,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35">
+      <c r="E6" s="36"/>
+      <c r="F6" s="32">
         <v>2</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1080,9 +1080,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1097,9 +1097,9 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="37"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1110,9 +1110,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1123,9 +1123,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1140,9 +1140,9 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1153,9 +1153,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1170,9 +1170,9 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1183,9 +1183,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1196,9 +1196,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1213,9 +1213,9 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1226,9 +1226,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1239,9 +1239,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1256,9 +1256,9 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="37"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1273,9 +1273,9 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="36"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1290,9 +1290,9 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="37"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1303,9 +1303,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1320,9 +1320,9 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="37"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1337,9 +1337,9 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="37"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1350,9 +1350,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1367,9 +1367,9 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="37"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1380,9 +1380,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1397,9 +1397,9 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1414,9 +1414,9 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1427,9 +1427,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1444,9 +1444,9 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="37"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1461,9 +1461,9 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="37"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1474,9 +1474,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="37"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1487,9 +1487,9 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="37"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1500,9 +1500,9 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="37"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1513,9 +1513,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1528,9 +1528,9 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="37"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1541,9 +1541,9 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="37"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1556,9 +1556,9 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="37"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14">
@@ -1569,9 +1569,9 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="37"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1586,9 +1586,9 @@
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1599,9 +1599,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1612,9 +1612,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1629,9 +1629,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1642,9 +1642,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1655,9 +1655,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1668,9 +1668,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1681,9 +1681,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1694,9 +1694,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1707,9 +1707,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1724,9 +1724,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1737,9 +1737,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="37"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1750,9 +1750,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="37"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1767,7 +1767,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1779,7 +1779,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1791,7 +1791,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="30"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1808,6 +1808,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1819,21 +1834,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07E2E66-D8FD-4443-AFA2-146FADC65882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F41065-2EA1-4C28-8CE9-9628676A6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -638,18 +650,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -667,6 +667,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -948,8 +960,9 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -958,8 +971,8 @@
     <col min="2" max="2" width="49.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="3" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1004,9 +1017,11 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="35">
+        <v>4</v>
+      </c>
+      <c r="G2" s="38"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1018,9 +1033,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1035,9 +1050,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1048,9 +1063,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1065,11 +1080,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32">
-        <v>2</v>
-      </c>
-      <c r="G6" s="30"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="35">
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1080,9 +1095,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1097,9 +1112,11 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="35">
+        <v>3.25</v>
+      </c>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1110,9 +1127,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1123,9 +1140,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1140,9 +1157,11 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1153,9 +1172,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1170,9 +1189,11 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="30"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="35">
+        <v>4</v>
+      </c>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1183,9 +1204,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1196,9 +1217,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1213,9 +1234,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="30"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="35">
+        <v>3</v>
+      </c>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1226,9 +1249,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1239,9 +1262,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1256,9 +1279,11 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="30"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="22">
+        <v>3</v>
+      </c>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1273,9 +1298,11 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="22">
+        <v>4</v>
+      </c>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1290,9 +1317,11 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="30"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="35">
+        <v>4</v>
+      </c>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1303,9 +1332,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1320,9 +1349,11 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="30"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="22">
+        <v>5</v>
+      </c>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1337,9 +1368,11 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="35">
+        <v>3</v>
+      </c>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1350,9 +1383,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1367,9 +1400,11 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="30"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="35">
+        <v>5</v>
+      </c>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1380,9 +1415,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1397,9 +1432,9 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="30"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1414,9 +1449,9 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="31"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1427,9 +1462,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="30"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1444,9 +1479,9 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="30"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1461,9 +1496,9 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="30"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1474,9 +1509,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="30"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1487,9 +1522,9 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="30"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1500,9 +1535,9 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="30"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1513,9 +1548,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="31"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1528,9 +1563,9 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="32"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="30"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1541,9 +1576,9 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="30"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1556,9 +1591,9 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="32"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14">
@@ -1569,9 +1604,9 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="30"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1586,9 +1621,9 @@
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1599,9 +1634,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1612,9 +1647,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1629,9 +1664,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1642,9 +1677,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1655,9 +1690,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1668,9 +1703,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1681,9 +1716,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1694,9 +1729,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1707,9 +1742,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1724,9 +1759,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="31"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1737,9 +1772,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1750,9 +1785,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1767,7 +1802,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="34"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1779,7 +1814,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="34"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1791,7 +1826,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="34"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1808,21 +1843,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1834,6 +1854,21 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F41065-2EA1-4C28-8CE9-9628676A6826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CB0074-6BC8-4CE5-9B99-D0CD06FDE3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,6 +650,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -667,18 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -960,9 +960,9 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1017,11 +1017,11 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="35">
+      <c r="E2" s="35"/>
+      <c r="F2" s="32">
         <v>4</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1033,9 +1033,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1050,9 +1050,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1063,9 +1063,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1080,11 +1080,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35">
+      <c r="E6" s="36"/>
+      <c r="F6" s="32">
         <v>3.5</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1095,9 +1095,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1112,11 +1112,11 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35">
+      <c r="E8" s="36"/>
+      <c r="F8" s="32">
         <v>3.25</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1127,9 +1127,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1140,9 +1140,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1157,11 +1157,11 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35">
+      <c r="E11" s="36"/>
+      <c r="F11" s="32">
         <v>2</v>
       </c>
-      <c r="G11" s="37"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1172,9 +1172,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1189,11 +1189,11 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35">
+      <c r="E13" s="36"/>
+      <c r="F13" s="32">
         <v>4</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1204,9 +1204,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1217,9 +1217,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1234,11 +1234,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="35">
+      <c r="E16" s="36"/>
+      <c r="F16" s="32">
         <v>3</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1249,9 +1249,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1262,9 +1262,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1279,11 +1279,11 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="22">
         <v>3</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1298,11 +1298,11 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="22">
         <v>4</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1317,11 +1317,11 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="35">
+      <c r="E21" s="36"/>
+      <c r="F21" s="32">
         <v>4</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1332,9 +1332,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1349,11 +1349,11 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="22">
         <v>5</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1368,11 +1368,11 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="35">
+      <c r="E24" s="36"/>
+      <c r="F24" s="32">
         <v>3</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1383,9 +1383,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1400,11 +1400,11 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="35">
+      <c r="E26" s="36"/>
+      <c r="F26" s="32">
         <v>5</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1415,9 +1415,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1432,9 +1432,11 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="37"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="22">
+        <v>4</v>
+      </c>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1449,9 +1451,9 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1462,9 +1464,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1479,9 +1481,9 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="37"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1496,9 +1498,9 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="22"/>
-      <c r="G32" s="37"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1509,9 +1511,9 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="22"/>
-      <c r="G33" s="37"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1522,9 +1524,9 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="22"/>
-      <c r="G34" s="37"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1535,9 +1537,9 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="22"/>
-      <c r="G35" s="37"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1548,9 +1550,9 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1563,9 +1565,9 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="37"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1576,9 +1578,9 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="37"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1591,9 +1593,9 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="37"/>
+      <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14">
@@ -1604,9 +1606,9 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="37"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1621,9 +1623,9 @@
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1634,9 +1636,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1647,9 +1649,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1664,9 +1666,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1677,9 +1679,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1690,9 +1692,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1703,9 +1705,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1716,9 +1718,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1729,9 +1731,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1742,9 +1744,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1759,9 +1761,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1772,9 +1774,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="37"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1785,9 +1787,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="37"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1802,7 +1804,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1814,7 +1816,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1826,7 +1828,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="30"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1843,6 +1845,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1854,21 +1871,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CB0074-6BC8-4CE5-9B99-D0CD06FDE3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC14483-AAFD-4652-9871-76577C9A4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -960,9 +960,9 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29:F30"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1452,7 +1452,9 @@
         <v>42</v>
       </c>
       <c r="E29" s="37"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="32">
+        <v>3</v>
+      </c>
       <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
@@ -1482,7 +1484,9 @@
         <v>47</v>
       </c>
       <c r="E31" s="38"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="22">
+        <v>2</v>
+      </c>
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
@@ -1499,7 +1503,9 @@
         <v>49</v>
       </c>
       <c r="E32" s="38"/>
-      <c r="F32" s="22"/>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
@@ -1512,7 +1518,9 @@
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
       <c r="E33" s="38"/>
-      <c r="F33" s="22"/>
+      <c r="F33" s="22">
+        <v>1</v>
+      </c>
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
@@ -1525,7 +1533,9 @@
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="22">
+        <v>2</v>
+      </c>
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC14483-AAFD-4652-9871-76577C9A4779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D60B8-2473-44CF-AF95-414277E34605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,7 +962,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1548,7 +1548,9 @@
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
       <c r="E35" s="38"/>
-      <c r="F35" s="22"/>
+      <c r="F35" s="22">
+        <v>12</v>
+      </c>
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
@@ -1561,7 +1563,9 @@
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
       <c r="E36" s="35"/>
-      <c r="F36" s="22"/>
+      <c r="F36" s="22">
+        <v>1.5</v>
+      </c>
       <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7">
@@ -1617,7 +1621,9 @@
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
       <c r="E40" s="36"/>
-      <c r="F40" s="22"/>
+      <c r="F40" s="22">
+        <v>3</v>
+      </c>
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7">

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77D60B8-2473-44CF-AF95-414277E34605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B88AA-0710-4CDF-8B38-72B4C7B0D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,18 +650,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -679,6 +667,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1017,11 +1017,11 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32">
+      <c r="E2" s="31"/>
+      <c r="F2" s="35">
         <v>4</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="38"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1033,9 +1033,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1050,9 +1050,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1063,9 +1063,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1080,11 +1080,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32">
+      <c r="E6" s="32"/>
+      <c r="F6" s="35">
         <v>3.5</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1095,9 +1095,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1112,11 +1112,11 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32">
+      <c r="E8" s="32"/>
+      <c r="F8" s="35">
         <v>3.25</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1127,9 +1127,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1140,9 +1140,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1157,11 +1157,11 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="32">
-        <v>2</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="35">
+        <v>2</v>
+      </c>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1172,9 +1172,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1189,11 +1189,11 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32">
+      <c r="E13" s="32"/>
+      <c r="F13" s="35">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1204,9 +1204,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1217,9 +1217,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1234,11 +1234,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32">
+      <c r="E16" s="32"/>
+      <c r="F16" s="35">
         <v>3</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1249,9 +1249,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="37"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1262,9 +1262,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1279,11 +1279,11 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="32"/>
       <c r="F19" s="22">
         <v>3</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1298,11 +1298,11 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="22">
         <v>4</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1317,11 +1317,11 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="32">
+      <c r="E21" s="32"/>
+      <c r="F21" s="35">
         <v>4</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1332,9 +1332,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1349,11 +1349,11 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="32"/>
       <c r="F23" s="22">
         <v>5</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1368,11 +1368,11 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32">
+      <c r="E24" s="32"/>
+      <c r="F24" s="35">
         <v>3</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1383,9 +1383,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1400,11 +1400,11 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="32">
+      <c r="E26" s="32"/>
+      <c r="F26" s="35">
         <v>5</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1415,9 +1415,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1432,11 +1432,11 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="32"/>
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1451,11 +1451,11 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="32">
+      <c r="E29" s="33"/>
+      <c r="F29" s="35">
         <v>3</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1466,9 +1466,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="30"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1483,11 +1483,11 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="22">
         <v>2</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1502,11 +1502,11 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="22">
         <v>2</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="37"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="22">
         <v>1</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="37"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1547,11 +1547,11 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="22">
         <v>12</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="37"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1562,11 +1562,11 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="22">
         <v>1.5</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1579,9 +1579,11 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="30"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="22">
+        <v>2</v>
+      </c>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1592,9 +1594,11 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="30"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="22">
+        <v>2.5</v>
+      </c>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1607,9 +1611,11 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="30"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="22">
+        <v>7</v>
+      </c>
+      <c r="G39" s="37"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="14">
@@ -1620,11 +1626,11 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1639,9 +1645,9 @@
       <c r="D41" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1652,9 +1658,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1665,9 +1671,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1682,9 +1688,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1695,9 +1701,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1708,9 +1714,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="31"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1721,9 +1727,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="31"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1734,9 +1740,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="31"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1747,9 +1753,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1760,9 +1766,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="31"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1777,9 +1783,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="31"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1790,9 +1796,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1803,9 +1809,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="37"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1820,7 +1826,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="34"/>
+      <c r="E54" s="30"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1832,7 +1838,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="34"/>
+      <c r="E55" s="30"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1844,7 +1850,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="34"/>
+      <c r="E56" s="30"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1861,21 +1867,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1887,6 +1878,21 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346B88AA-0710-4CDF-8B38-72B4C7B0D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CE5A9-7420-4022-8663-70D1013A03C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Working with Datetimes</t>
+  </si>
+  <si>
+    <t>Asp.Net Web Forms</t>
   </si>
 </sst>
 </file>
@@ -650,6 +653,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -667,18 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -960,9 +963,9 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1017,11 +1020,11 @@
       <c r="D2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="35">
+      <c r="E2" s="35"/>
+      <c r="F2" s="32">
         <v>4</v>
       </c>
-      <c r="G2" s="38"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:9">
@@ -1033,9 +1036,9 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25" t="s">
         <v>82</v>
@@ -1050,9 +1053,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1063,9 +1066,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1080,11 +1083,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="35">
+      <c r="E6" s="36"/>
+      <c r="F6" s="32">
         <v>3.5</v>
       </c>
-      <c r="G6" s="37"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1095,9 +1098,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1112,11 +1115,11 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="35">
+      <c r="E8" s="36"/>
+      <c r="F8" s="32">
         <v>3.25</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1127,9 +1130,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1140,9 +1143,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1157,11 +1160,11 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="35">
-        <v>2</v>
-      </c>
-      <c r="G11" s="37"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="32">
+        <v>2</v>
+      </c>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1172,9 +1175,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1189,11 +1192,11 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="35">
+      <c r="E13" s="36"/>
+      <c r="F13" s="32">
         <v>4</v>
       </c>
-      <c r="G13" s="37"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1204,9 +1207,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="37"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1217,9 +1220,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1234,11 +1237,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="35">
+      <c r="E16" s="36"/>
+      <c r="F16" s="32">
         <v>3</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1249,9 +1252,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="37"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1262,9 +1265,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="37"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1279,11 +1282,11 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="22">
         <v>3</v>
       </c>
-      <c r="G19" s="37"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1298,11 +1301,11 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="22">
         <v>4</v>
       </c>
-      <c r="G20" s="36"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1317,11 +1320,11 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="35">
+      <c r="E21" s="36"/>
+      <c r="F21" s="32">
         <v>4</v>
       </c>
-      <c r="G21" s="37"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1332,9 +1335,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="37"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1349,11 +1352,11 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="32"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="22">
         <v>5</v>
       </c>
-      <c r="G23" s="37"/>
+      <c r="G23" s="30"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1368,11 +1371,11 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="35">
+      <c r="E24" s="36"/>
+      <c r="F24" s="32">
         <v>3</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1383,9 +1386,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1400,11 +1403,11 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="35">
+      <c r="E26" s="36"/>
+      <c r="F26" s="32">
         <v>5</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1415,9 +1418,9 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="37"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
@@ -1432,11 +1435,11 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1451,11 +1454,11 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35">
+      <c r="E29" s="37"/>
+      <c r="F29" s="32">
         <v>3</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1466,9 +1469,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="37"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1483,11 +1486,11 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="22">
         <v>2</v>
       </c>
-      <c r="G31" s="37"/>
+      <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1502,11 +1505,11 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="34"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="22">
         <v>2</v>
       </c>
-      <c r="G32" s="37"/>
+      <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1517,11 +1520,11 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="34"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="22">
         <v>1</v>
       </c>
-      <c r="G33" s="37"/>
+      <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1532,11 +1535,11 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="34"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="37"/>
+      <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1547,11 +1550,11 @@
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="27"/>
-      <c r="E35" s="34"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="22">
         <v>12</v>
       </c>
-      <c r="G35" s="37"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1562,11 +1565,11 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="22">
         <v>1.5</v>
       </c>
-      <c r="G36" s="36"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1579,11 +1582,11 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="32"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="22">
         <v>2</v>
       </c>
-      <c r="G37" s="37"/>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1594,11 +1597,11 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="32"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="22">
         <v>2.5</v>
       </c>
-      <c r="G38" s="37"/>
+      <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1611,13 +1614,13 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="32"/>
+      <c r="E39" s="36"/>
       <c r="F39" s="22">
         <v>7</v>
       </c>
-      <c r="G39" s="37"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="G39" s="30"/>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1">
       <c r="A40" s="14">
         <v>24</v>
       </c>
@@ -1626,11 +1629,11 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="32"/>
+      <c r="E40" s="36"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
-      <c r="G40" s="37"/>
+      <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1643,11 +1646,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+        <v>85</v>
+      </c>
+      <c r="E41" s="35"/>
+      <c r="F41" s="32">
+        <v>7</v>
+      </c>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1658,9 +1663,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1671,9 +1676,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1688,9 +1693,9 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1701,9 +1706,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1714,9 +1719,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1727,9 +1732,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1740,9 +1745,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="32"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1753,9 +1758,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1766,9 +1771,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1783,9 +1788,9 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1796,9 +1801,9 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="30"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="37"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="20"/>
@@ -1809,9 +1814,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="30"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="37"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1826,7 +1831,7 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="30"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:7">
@@ -1838,7 +1843,7 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="30"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:7">
@@ -1850,7 +1855,7 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="30"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:7">
@@ -1867,6 +1872,21 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1878,21 +1898,6 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/API Learning/API Learn.xlsx
+++ b/API Learning/API Learn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dotnet\API Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CE5A9-7420-4022-8663-70D1013A03C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB1A2B1-43E2-4C8E-9232-0F0DA24A8FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -386,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -601,13 +601,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -645,26 +669,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -682,6 +691,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -963,9 +993,9 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54:F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -997,7 +1027,7 @@
       <c r="F1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1017,15 +1047,17 @@
       <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="32">
+      <c r="E2" s="30"/>
+      <c r="F2" s="34">
         <v>4</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="25"/>
+      <c r="G2" s="37">
+        <v>1</v>
+      </c>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10"/>
@@ -1036,11 +1068,11 @@
       <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
+      <c r="E3" s="31"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1053,9 +1085,9 @@
       <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10"/>
@@ -1066,9 +1098,9 @@
       <c r="D5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10">
@@ -1083,11 +1115,11 @@
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="32">
+      <c r="E6" s="31"/>
+      <c r="F6" s="34">
         <v>3.5</v>
       </c>
-      <c r="G6" s="30"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10"/>
@@ -1098,9 +1130,9 @@
       <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10">
@@ -1115,11 +1147,11 @@
       <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="32">
+      <c r="E8" s="31"/>
+      <c r="F8" s="34">
         <v>3.25</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10"/>
@@ -1130,9 +1162,9 @@
       <c r="D9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10"/>
@@ -1143,9 +1175,9 @@
       <c r="D10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10">
@@ -1160,11 +1192,11 @@
       <c r="D11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="32">
-        <v>2</v>
-      </c>
-      <c r="G11" s="30"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="34">
+        <v>2</v>
+      </c>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="10"/>
@@ -1175,9 +1207,9 @@
       <c r="D12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10">
@@ -1192,11 +1224,11 @@
       <c r="D13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="32">
+      <c r="E13" s="31"/>
+      <c r="F13" s="34">
         <v>4</v>
       </c>
-      <c r="G13" s="30"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="10"/>
@@ -1207,9 +1239,9 @@
       <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10"/>
@@ -1220,9 +1252,9 @@
       <c r="D15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="10">
@@ -1237,11 +1269,11 @@
       <c r="D16" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="32">
+      <c r="E16" s="31"/>
+      <c r="F16" s="34">
         <v>3</v>
       </c>
-      <c r="G16" s="30"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="10"/>
@@ -1252,9 +1284,9 @@
       <c r="D17" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="10"/>
@@ -1265,9 +1297,9 @@
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="14">
@@ -1282,11 +1314,11 @@
       <c r="D19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="22">
         <v>3</v>
       </c>
-      <c r="G19" s="30"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7">
@@ -1301,11 +1333,13 @@
       <c r="D20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="22">
         <v>4</v>
       </c>
-      <c r="G20" s="31"/>
+      <c r="G20" s="35">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="10">
@@ -1320,11 +1354,11 @@
       <c r="D21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="32">
+      <c r="E21" s="31"/>
+      <c r="F21" s="34">
         <v>4</v>
       </c>
-      <c r="G21" s="30"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="10"/>
@@ -1335,9 +1369,9 @@
       <c r="D22" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="10">
@@ -1352,11 +1386,11 @@
       <c r="D23" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="22">
         <v>5</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="10">
@@ -1371,11 +1405,11 @@
       <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="32">
+      <c r="E24" s="31"/>
+      <c r="F24" s="34">
         <v>3</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="10"/>
@@ -1386,9 +1420,9 @@
       <c r="D25" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="30"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="10">
@@ -1403,11 +1437,11 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="32">
+      <c r="E26" s="31"/>
+      <c r="F26" s="34">
         <v>5</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="10"/>
@@ -1418,15 +1452,15 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7" ht="15" thickBot="1">
       <c r="A28" s="14">
         <v>13</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="16">
@@ -1435,11 +1469,11 @@
       <c r="D28" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="22">
         <v>4</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7">
@@ -1454,11 +1488,13 @@
       <c r="D29" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="37"/>
-      <c r="F29" s="32">
+      <c r="E29" s="32"/>
+      <c r="F29" s="34">
         <v>3</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="35">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="10"/>
@@ -1469,9 +1505,9 @@
       <c r="D30" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="30"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="10">
@@ -1486,11 +1522,11 @@
       <c r="D31" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="38"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="22">
         <v>2</v>
       </c>
-      <c r="G31" s="30"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="10">
@@ -1505,11 +1541,11 @@
       <c r="D32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="38"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="22">
         <v>2</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="10">
@@ -1520,11 +1556,11 @@
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="13"/>
-      <c r="E33" s="38"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="22">
         <v>1</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="10">
@@ -1535,11 +1571,11 @@
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="13"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="22">
         <v>2</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14">
@@ -1549,12 +1585,12 @@
         <v>52</v>
       </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="38"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="22">
         <v>12</v>
       </c>
-      <c r="G35" s="30"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7">
@@ -1565,11 +1601,13 @@
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="35"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="22">
         <v>1.5</v>
       </c>
-      <c r="G36" s="31"/>
+      <c r="G36" s="35">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="10">
@@ -1582,11 +1620,11 @@
       <c r="D37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="36"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="22">
         <v>2</v>
       </c>
-      <c r="G37" s="30"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="10">
@@ -1597,11 +1635,11 @@
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="13"/>
-      <c r="E38" s="36"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="22">
         <v>2.5</v>
       </c>
-      <c r="G38" s="30"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="10">
@@ -1614,11 +1652,11 @@
       <c r="D39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="22">
         <v>7</v>
       </c>
-      <c r="G39" s="30"/>
+      <c r="G39" s="36"/>
     </row>
     <row r="40" spans="1:7" ht="15" thickBot="1">
       <c r="A40" s="14">
@@ -1629,11 +1667,11 @@
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="21"/>
-      <c r="E40" s="36"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="22">
         <v>3</v>
       </c>
-      <c r="G40" s="30"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17">
@@ -1648,11 +1686,13 @@
       <c r="D41" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="35"/>
-      <c r="F41" s="32">
+      <c r="E41" s="30"/>
+      <c r="F41" s="34">
         <v>7</v>
       </c>
-      <c r="G41" s="31"/>
+      <c r="G41" s="35">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="19"/>
@@ -1663,9 +1703,9 @@
       <c r="D42" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="19"/>
@@ -1676,9 +1716,9 @@
       <c r="D43" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="19">
@@ -1693,9 +1733,11 @@
       <c r="D44" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="34">
+        <v>10</v>
+      </c>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="19"/>
@@ -1706,9 +1748,9 @@
       <c r="D45" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="36"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="19"/>
@@ -1719,9 +1761,9 @@
       <c r="D46" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="19"/>
@@ -1732,9 +1774,9 @@
       <c r="D47" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="19"/>
@@ -1745,9 +1787,9 @@
       <c r="D48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="19"/>
@@ -1758,9 +1800,9 @@
       <c r="D49" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="20"/>
@@ -1771,9 +1813,9 @@
       <c r="D50" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="36"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="17">
@@ -1788,9 +1830,13 @@
       <c r="D51" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="31"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="34">
+        <v>8</v>
+      </c>
+      <c r="G51" s="35">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="19"/>
@@ -1801,11 +1847,11 @@
       <c r="D52" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="34"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="30"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="E52" s="29"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="36"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1">
       <c r="A53" s="20"/>
       <c r="B53" s="15"/>
       <c r="C53" s="16">
@@ -1814,9 +1860,9 @@
       <c r="D53" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="34"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="30"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="36"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17">
@@ -1831,8 +1877,11 @@
       <c r="D54" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="34"/>
-      <c r="F54" s="23"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="36">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="19"/>
@@ -1843,10 +1892,11 @@
       <c r="D55" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E55" s="34"/>
-      <c r="F55" s="23"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="E55" s="29"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="36"/>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1">
       <c r="A56" s="20"/>
       <c r="B56" s="15"/>
       <c r="C56" s="16">
@@ -1855,8 +1905,9 @@
       <c r="D56" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="34"/>
-      <c r="F56" s="23"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="36"/>
     </row>
     <row r="57" spans="1:7">
       <c r="D57" s="3"/>
@@ -1871,22 +1922,9 @@
       <c r="E59" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E2:E19"/>
-    <mergeCell ref="E20:E28"/>
-    <mergeCell ref="E29:E35"/>
-    <mergeCell ref="E36:E40"/>
-    <mergeCell ref="E41:E50"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="G20:G28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G35"/>
+  <mergeCells count="28">
+    <mergeCell ref="G54:G56"/>
+    <mergeCell ref="F54:F56"/>
     <mergeCell ref="G2:G19"/>
     <mergeCell ref="G36:G40"/>
     <mergeCell ref="F41:F43"/>
@@ -1898,6 +1936,21 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F15"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="G20:G28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G35"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E2:E19"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E29:E35"/>
+    <mergeCell ref="E36:E40"/>
+    <mergeCell ref="E41:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
